--- a/teaching/traditional_assets/database/data/jordan/jordan_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_insurance_prop_cas.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0147</v>
+        <v>-0.0052</v>
       </c>
       <c r="E2">
-        <v>-0.1074</v>
+        <v>-0.009170000000000001</v>
       </c>
       <c r="G2">
-        <v>-0.001323614041818526</v>
+        <v>0.08862833183587901</v>
       </c>
       <c r="H2">
-        <v>-0.001323614041818526</v>
+        <v>0.08862833183587901</v>
       </c>
       <c r="I2">
-        <v>0.007347017072702857</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="J2">
-        <v>0.006703236534795361</v>
+        <v>0.08873141762094067</v>
       </c>
       <c r="K2">
-        <v>0.7</v>
+        <v>29.21</v>
       </c>
       <c r="L2">
-        <v>0.01342796854018799</v>
+        <v>0.08748128182090448</v>
       </c>
       <c r="M2">
-        <v>1.56</v>
+        <v>8.988</v>
       </c>
       <c r="N2">
-        <v>0.05483304042179261</v>
+        <v>0.02275155043665359</v>
       </c>
       <c r="O2">
-        <v>2.228571428571429</v>
+        <v>0.3077028414926395</v>
       </c>
       <c r="P2">
-        <v>1.56</v>
+        <v>8.988</v>
       </c>
       <c r="Q2">
-        <v>0.05483304042179261</v>
+        <v>0.02275155043665359</v>
       </c>
       <c r="R2">
-        <v>2.228571428571429</v>
+        <v>0.3077028414926395</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>12.74</v>
+        <v>316.62</v>
       </c>
       <c r="V2">
-        <v>0.4478031634446396</v>
+        <v>0.8014681685862549</v>
       </c>
       <c r="W2">
-        <v>0.0405940594059406</v>
+        <v>0.08133506156837329</v>
       </c>
       <c r="X2">
-        <v>0.06762768498790804</v>
+        <v>0.06874646653645812</v>
       </c>
       <c r="Y2">
-        <v>-0.02703362558196745</v>
+        <v>0.01258859503191517</v>
       </c>
       <c r="Z2">
-        <v>2.043031823169776</v>
+        <v>1.65040481627569</v>
       </c>
       <c r="AA2">
-        <v>0.0482177830003917</v>
+        <v>0.1619594633349098</v>
       </c>
       <c r="AB2">
-        <v>0.06762768498790804</v>
+        <v>0.06874646653645812</v>
       </c>
       <c r="AC2">
-        <v>-0.01940990198751634</v>
+        <v>0.09321299679845164</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-12.74</v>
+        <v>-316.62</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,22 +684,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.810948440483768</v>
+        <v>-4.036975647073824</v>
       </c>
       <c r="AK2">
-        <v>-0.4962991819244253</v>
+        <v>-3.193987692928478</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>330.5555555555555</v>
+      </c>
       <c r="AP2">
-        <v>-18.70778267254038</v>
+        <v>-8.449959967974378</v>
+      </c>
+      <c r="AQ2">
+        <v>330.5555555555555</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philadelphia Insurance Co (P.S.C) (ASE:PHIN)</t>
+          <t>Al-Manara Insurance Company (PSC) (ASE:ARSI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +725,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0147</v>
+        <v>-0.0322</v>
       </c>
       <c r="G3">
-        <v>-0.02939979654120041</v>
+        <v>0.07258928571428572</v>
       </c>
       <c r="H3">
-        <v>-0.02939979654120041</v>
+        <v>0.07258928571428572</v>
       </c>
       <c r="I3">
-        <v>-0.09643947100712105</v>
+        <v>0.13125</v>
       </c>
       <c r="J3">
-        <v>-0.09643947100712105</v>
+        <v>0.1300862068965517</v>
       </c>
       <c r="K3">
-        <v>-0.888</v>
+        <v>2.01</v>
       </c>
       <c r="L3">
-        <v>-0.09033570701932858</v>
+        <v>0.1794642857142857</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +752,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,37 +761,37 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>8.19</v>
+        <v>1.89</v>
       </c>
       <c r="V3">
-        <v>2.268698060941828</v>
+        <v>0.4784810126582278</v>
       </c>
       <c r="W3">
-        <v>-0.1361963190184049</v>
+        <v>0.4446902654867256</v>
       </c>
       <c r="X3">
-        <v>0.06762768498790804</v>
+        <v>0.06874646653645812</v>
       </c>
       <c r="Y3">
-        <v>-0.203824004006313</v>
+        <v>0.3759437989502675</v>
       </c>
       <c r="Z3">
-        <v>-3.024615384615385</v>
+        <v>3.636363636363637</v>
       </c>
       <c r="AA3">
-        <v>0.2916923076923077</v>
+        <v>0.4730407523510972</v>
       </c>
       <c r="AB3">
-        <v>0.06762768498790804</v>
+        <v>0.06874646653645812</v>
       </c>
       <c r="AC3">
-        <v>0.2240646227043996</v>
+        <v>0.4042942858146391</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-8.19</v>
+        <v>-1.89</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -806,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.788209606986899</v>
+        <v>-0.9174757281553395</v>
       </c>
       <c r="AK3">
-        <v>2.925</v>
+        <v>-0.3970588235294117</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -818,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>8.88286334056399</v>
+        <v>-1.188679245283019</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Islamic Insurance Co. Plc. (ASE:TIIC)</t>
+          <t>International General Insurance Holdings Ltd. (NasdaqCM:IGIC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -840,47 +846,41 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0353</v>
-      </c>
-      <c r="E4">
-        <v>-0.0198</v>
-      </c>
       <c r="G4">
-        <v>0.06903225806451613</v>
+        <v>0.09068881966078228</v>
       </c>
       <c r="H4">
-        <v>0.06903225806451613</v>
+        <v>0.09068881966078228</v>
       </c>
       <c r="I4">
-        <v>0.05387096774193548</v>
+        <v>0.1062651436483212</v>
       </c>
       <c r="J4">
-        <v>0.03970967741935484</v>
+        <v>0.09632916090286447</v>
       </c>
       <c r="K4">
-        <v>1.23</v>
+        <v>25.1</v>
       </c>
       <c r="L4">
-        <v>0.03967741935483871</v>
+        <v>0.08688127379716166</v>
       </c>
       <c r="M4">
-        <v>1.56</v>
+        <v>7.718</v>
       </c>
       <c r="N4">
-        <v>0.07222222222222222</v>
+        <v>0.0210299727520436</v>
       </c>
       <c r="O4">
-        <v>1.268292682926829</v>
+        <v>0.3074900398406374</v>
       </c>
       <c r="P4">
-        <v>1.56</v>
+        <v>7.718</v>
       </c>
       <c r="Q4">
-        <v>0.07222222222222222</v>
+        <v>0.0210299727520436</v>
       </c>
       <c r="R4">
-        <v>1.268292682926829</v>
+        <v>0.3074900398406374</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -889,31 +889,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>3.11</v>
+        <v>312.1</v>
       </c>
       <c r="V4">
-        <v>0.1439814814814815</v>
+        <v>0.8504087193460491</v>
       </c>
       <c r="W4">
-        <v>0.0405940594059406</v>
+        <v>0.08133506156837329</v>
       </c>
       <c r="X4">
-        <v>0.06762768498790804</v>
+        <v>0.06874646653645812</v>
       </c>
       <c r="Y4">
-        <v>-0.02703362558196745</v>
+        <v>0.01258859503191517</v>
       </c>
       <c r="Z4">
-        <v>1.214257735996866</v>
+        <v>1.681312925565966</v>
       </c>
       <c r="AA4">
-        <v>0.0482177830003917</v>
+        <v>0.1619594633349098</v>
       </c>
       <c r="AB4">
-        <v>0.06762768498790804</v>
+        <v>0.06874646653645812</v>
       </c>
       <c r="AC4">
-        <v>-0.01940990198751634</v>
+        <v>0.09321299679845164</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-3.11</v>
+        <v>-312.1</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -934,22 +934,28 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.1681990265008112</v>
+        <v>-5.684881602914393</v>
       </c>
       <c r="AK4">
-        <v>-0.1224891689641591</v>
+        <v>-4.623703703703704</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <v>284.2592592592592</v>
+      </c>
       <c r="AP4">
-        <v>-1.699453551912568</v>
+        <v>-9.692546583850932</v>
+      </c>
+      <c r="AQ4">
+        <v>284.2592592592592</v>
       </c>
     </row>
     <row r="5">
@@ -960,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al-Manara Insurance Company (PSC) (ASE:ARSI)</t>
+          <t>The Islamic Insurance Company Plc. (ASE:TIIC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -969,76 +975,79 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0308</v>
+        <v>0.0218</v>
       </c>
       <c r="E5">
-        <v>-0.195</v>
+        <v>-0.009170000000000001</v>
       </c>
       <c r="G5">
-        <v>-0.1699115044247787</v>
+        <v>0.07633136094674557</v>
       </c>
       <c r="H5">
-        <v>-0.1699115044247787</v>
+        <v>0.07633136094674557</v>
       </c>
       <c r="I5">
-        <v>-0.03</v>
+        <v>0.1044378698224852</v>
       </c>
       <c r="J5">
-        <v>-0.03</v>
+        <v>0.06183431952662722</v>
       </c>
       <c r="K5">
-        <v>0.358</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>0.03168141592920354</v>
+        <v>0.0621301775147929</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>1.27</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.05269709543568465</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>1.27</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.05269709543568465</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>1.44</v>
+        <v>2.63</v>
       </c>
       <c r="V5">
-        <v>0.4444444444444444</v>
+        <v>0.1091286307053942</v>
       </c>
       <c r="W5">
-        <v>0.08647342995169083</v>
+        <v>0.07446808510638299</v>
       </c>
       <c r="X5">
-        <v>0.06762768498790804</v>
+        <v>0.06874646653645812</v>
       </c>
       <c r="Y5">
-        <v>0.01884574496378279</v>
+        <v>0.005721618569924869</v>
       </c>
       <c r="Z5">
-        <v>3.491965389369593</v>
+        <v>1.233396584440228</v>
       </c>
       <c r="AA5">
-        <v>-0.1047589616810878</v>
+        <v>0.07626623850532768</v>
       </c>
       <c r="AB5">
-        <v>0.06762768498790804</v>
+        <v>0.06874646653645812</v>
       </c>
       <c r="AC5">
-        <v>-0.1723866466689958</v>
+        <v>0.007519771968869562</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1050,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-1.44</v>
+        <v>-2.63</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1059,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.7999999999999998</v>
+        <v>-0.1224965067536097</v>
       </c>
       <c r="AK5">
-        <v>-0.4675324675324676</v>
+        <v>-0.09787867510234462</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1071,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>6.343612334801762</v>
+        <v>-0.7146739130434782</v>
       </c>
     </row>
   </sheetData>
